--- a/竣工资料/8/8#  1.分部（子分部）工程质量验收记录.xlsx
+++ b/竣工资料/8/8#  1.分部（子分部）工程质量验收记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="第1页" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>CFG桩</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>合格</t>
+  </si>
+  <si>
+    <t>混凝土灌注桩混凝土施工工程</t>
   </si>
   <si>
     <t xml:space="preserve"> 质量控制资料核查</t>
@@ -156,9 +159,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -213,34 +216,36 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -254,9 +259,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,45 +335,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -323,47 +365,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,187 +387,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,29 +970,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,6 +992,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1024,11 +1027,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,155 +1057,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1753,14 +1756,16 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:I6"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="15" width="3.71428571428571" customWidth="1"/>
-    <col min="16" max="16" width="4.28571428571429" customWidth="1"/>
-    <col min="17" max="26" width="3.71428571428571" customWidth="1"/>
+    <col min="1" max="15" width="3.71296296296296" customWidth="1"/>
+    <col min="16" max="16" width="4.28703703703704" customWidth="1"/>
+    <col min="17" max="21" width="3.71296296296296" customWidth="1"/>
+    <col min="22" max="22" width="4.66666666666667" customWidth="1"/>
+    <col min="23" max="26" width="3.71296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" customHeight="1" spans="1:26">
@@ -2110,20 +2115,30 @@
       <c r="Z10" s="47"/>
     </row>
     <row r="11" ht="24.6" customHeight="1" spans="1:26">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="N11" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -2363,7 +2378,7 @@
     </row>
     <row r="20" ht="24.6" customHeight="1" spans="1:26">
       <c r="A20" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -2375,12 +2390,12 @@
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -2397,7 +2412,7 @@
     </row>
     <row r="21" ht="24.6" customHeight="1" spans="1:26">
       <c r="A21" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -2409,12 +2424,12 @@
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -2431,7 +2446,7 @@
     </row>
     <row r="22" ht="24.6" customHeight="1" spans="1:26">
       <c r="A22" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2443,12 +2458,12 @@
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -2465,7 +2480,7 @@
     </row>
     <row r="23" ht="24.6" customHeight="1" spans="1:26">
       <c r="A23" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2523,7 +2538,7 @@
     </row>
     <row r="25" ht="24.6" customHeight="1" spans="1:26">
       <c r="A25" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -2567,21 +2582,21 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
@@ -2619,7 +2634,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
       <c r="U27" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
@@ -2677,7 +2692,7 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
@@ -2715,35 +2730,35 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="1:26">
       <c r="A31" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="36"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V31" s="36"/>
       <c r="W31" s="36"/>
